--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prototype Development and Testing\lottery-feat-prize-list-order\lottery-feat-prize-list-order\server\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prototype Development and Testing\lottery\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16498C6D-EB7D-4090-A562-41DF5CD937DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B497842-F76D-4C4D-9414-31EA10473919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="16200" windowHeight="9969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="218">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,15 +51,747 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OSAKA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈勒普</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑妹</t>
+    <t>2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akuzu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>azuk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>betterway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casillas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dfish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnMa0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ercole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F0uR1eaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fboshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HHH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hsp63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kisaki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kksk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kokubun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Langley.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ledamacian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>losecoco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mistroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rykka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiroha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tabun8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAC50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teddy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uchisl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuecun.Sakura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶茶mafu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尘辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村民（hlsvillager)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带带大专人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堕炙Narcissu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非洲难民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风羽蓝_Aoi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤雪心殇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑田_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽亚娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近藤信光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉皇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔西亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技化共同吐槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃佳若羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃茵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零奈迩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路陌之深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末影龙飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫长安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妮可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>念璃zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破产的湿帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇丽梦幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇葩的小猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三景一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩斗士星星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>式轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡不醒的小怪兽w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空迫降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜Salt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望月千夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汐银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弦叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向澜秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咲汐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶凌君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苡苠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总觉得缺什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うさぎ（桃山）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さかな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>000005</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>000007</t>
+  </si>
+  <si>
+    <t>000008</t>
+  </si>
+  <si>
+    <t>000009</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>000012</t>
+  </si>
+  <si>
+    <t>000013</t>
+  </si>
+  <si>
+    <t>000014</t>
+  </si>
+  <si>
+    <t>000015</t>
+  </si>
+  <si>
+    <t>000016</t>
+  </si>
+  <si>
+    <t>000017</t>
+  </si>
+  <si>
+    <t>000018</t>
+  </si>
+  <si>
+    <t>000019</t>
+  </si>
+  <si>
+    <t>000020</t>
+  </si>
+  <si>
+    <t>000021</t>
+  </si>
+  <si>
+    <t>000022</t>
+  </si>
+  <si>
+    <t>000023</t>
+  </si>
+  <si>
+    <t>000024</t>
+  </si>
+  <si>
+    <t>000025</t>
+  </si>
+  <si>
+    <t>000026</t>
+  </si>
+  <si>
+    <t>000027</t>
+  </si>
+  <si>
+    <t>000028</t>
+  </si>
+  <si>
+    <t>000029</t>
+  </si>
+  <si>
+    <t>000030</t>
+  </si>
+  <si>
+    <t>000031</t>
+  </si>
+  <si>
+    <t>000032</t>
+  </si>
+  <si>
+    <t>000033</t>
+  </si>
+  <si>
+    <t>000034</t>
+  </si>
+  <si>
+    <t>000035</t>
+  </si>
+  <si>
+    <t>000036</t>
+  </si>
+  <si>
+    <t>000037</t>
+  </si>
+  <si>
+    <t>000038</t>
+  </si>
+  <si>
+    <t>000039</t>
+  </si>
+  <si>
+    <t>000040</t>
+  </si>
+  <si>
+    <t>000041</t>
+  </si>
+  <si>
+    <t>000042</t>
+  </si>
+  <si>
+    <t>000043</t>
+  </si>
+  <si>
+    <t>000044</t>
+  </si>
+  <si>
+    <t>000045</t>
+  </si>
+  <si>
+    <t>000046</t>
+  </si>
+  <si>
+    <t>000047</t>
+  </si>
+  <si>
+    <t>000048</t>
+  </si>
+  <si>
+    <t>000049</t>
+  </si>
+  <si>
+    <t>000050</t>
+  </si>
+  <si>
+    <t>000051</t>
+  </si>
+  <si>
+    <t>000052</t>
+  </si>
+  <si>
+    <t>000053</t>
+  </si>
+  <si>
+    <t>000054</t>
+  </si>
+  <si>
+    <t>000055</t>
+  </si>
+  <si>
+    <t>000056</t>
+  </si>
+  <si>
+    <t>000057</t>
+  </si>
+  <si>
+    <t>000058</t>
+  </si>
+  <si>
+    <t>000059</t>
+  </si>
+  <si>
+    <t>000060</t>
+  </si>
+  <si>
+    <t>000061</t>
+  </si>
+  <si>
+    <t>000062</t>
+  </si>
+  <si>
+    <t>000063</t>
+  </si>
+  <si>
+    <t>000064</t>
+  </si>
+  <si>
+    <t>000065</t>
+  </si>
+  <si>
+    <t>000066</t>
+  </si>
+  <si>
+    <t>000067</t>
+  </si>
+  <si>
+    <t>000068</t>
+  </si>
+  <si>
+    <t>000069</t>
+  </si>
+  <si>
+    <t>000070</t>
+  </si>
+  <si>
+    <t>000071</t>
+  </si>
+  <si>
+    <t>000072</t>
+  </si>
+  <si>
+    <t>000073</t>
+  </si>
+  <si>
+    <t>000074</t>
+  </si>
+  <si>
+    <t>000075</t>
+  </si>
+  <si>
+    <t>000076</t>
+  </si>
+  <si>
+    <t>000077</t>
+  </si>
+  <si>
+    <t>000078</t>
+  </si>
+  <si>
+    <t>000079</t>
+  </si>
+  <si>
+    <t>000080</t>
+  </si>
+  <si>
+    <t>000081</t>
+  </si>
+  <si>
+    <t>000082</t>
+  </si>
+  <si>
+    <t>000083</t>
+  </si>
+  <si>
+    <t>000084</t>
+  </si>
+  <si>
+    <t>000085</t>
+  </si>
+  <si>
+    <t>000086</t>
+  </si>
+  <si>
+    <t>000087</t>
+  </si>
+  <si>
+    <t>000088</t>
+  </si>
+  <si>
+    <t>000089</t>
+  </si>
+  <si>
+    <t>000090</t>
+  </si>
+  <si>
+    <t>000091</t>
+  </si>
+  <si>
+    <t>000092</t>
+  </si>
+  <si>
+    <t>000093</t>
+  </si>
+  <si>
+    <t>000094</t>
+  </si>
+  <si>
+    <t>000095</t>
+  </si>
+  <si>
+    <t>000096</t>
+  </si>
+  <si>
+    <t>000097</t>
+  </si>
+  <si>
+    <t>000098</t>
+  </si>
+  <si>
+    <t>000099</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>000101</t>
+  </si>
+  <si>
+    <t>000102</t>
+  </si>
+  <si>
+    <t>000103</t>
+  </si>
+  <si>
+    <t>000104</t>
+  </si>
+  <si>
+    <t>000105</t>
+  </si>
+  <si>
+    <t>000106</t>
+  </si>
+  <si>
+    <t>000107</t>
+  </si>
+  <si>
+    <t>galgame批评</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +799,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,27 +828,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -152,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -164,12 +878,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,20 +1195,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="26.7109375" style="1"/>
+    <col min="1" max="1" width="26.7109375" style="1"/>
+    <col min="2" max="2" width="26.7109375" style="2"/>
+    <col min="3" max="16384" width="26.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -509,528 +1219,1180 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
+      <c r="A67" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
+      <c r="A69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="3"/>
+      <c r="A75" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="3"/>
+      <c r="A79" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
-      <c r="C81" s="3"/>
+      <c r="A81" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
-      <c r="C85" s="3"/>
+      <c r="A85" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
-      <c r="C86" s="3"/>
+      <c r="A86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
-      <c r="C88" s="3"/>
+      <c r="A88" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
-      <c r="C91" s="3"/>
+      <c r="A91" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
-      <c r="C93" s="3"/>
+      <c r="A93" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="2"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="2"/>
-      <c r="C100" s="3"/>
+      <c r="A100" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="2"/>
-      <c r="C101" s="3"/>
+      <c r="A101" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="2"/>
-      <c r="C102" s="3"/>
+      <c r="A102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="2"/>
-      <c r="C103" s="3"/>
+      <c r="A103" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="2"/>
-      <c r="C104" s="3"/>
+      <c r="A104" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="2"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="2"/>
-      <c r="C106" s="3"/>
+      <c r="A106" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="2"/>
-      <c r="C107" s="3"/>
+      <c r="A107" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="2"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="3"/>
+      <c r="A108" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
@@ -1038,7 +2400,6 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
-      <c r="B110" s="5"/>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
